--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H2">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I2">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J2">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.6516593649638</v>
+        <v>5.662128</v>
       </c>
       <c r="N2">
-        <v>5.6516593649638</v>
+        <v>11.324256</v>
       </c>
       <c r="O2">
-        <v>0.06594137431539802</v>
+        <v>0.06190607559117826</v>
       </c>
       <c r="P2">
-        <v>0.06594137431539802</v>
+        <v>0.05368474409304218</v>
       </c>
       <c r="Q2">
-        <v>37.35311465972184</v>
+        <v>40.528419433296</v>
       </c>
       <c r="R2">
-        <v>37.35311465972184</v>
+        <v>162.113677733184</v>
       </c>
       <c r="S2">
-        <v>0.0139447751028413</v>
+        <v>0.01306991369687903</v>
       </c>
       <c r="T2">
-        <v>0.0139447751028413</v>
+        <v>0.008893127731858425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H3">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I3">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J3">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.21310693528681</v>
+        <v>3.361461</v>
       </c>
       <c r="N3">
-        <v>3.21310693528681</v>
+        <v>10.084383</v>
       </c>
       <c r="O3">
-        <v>0.03748928826967724</v>
+        <v>0.03675205837148113</v>
       </c>
       <c r="P3">
-        <v>0.03748928826967724</v>
+        <v>0.04780689527782002</v>
       </c>
       <c r="Q3">
-        <v>21.23616163276755</v>
+        <v>24.060689076027</v>
       </c>
       <c r="R3">
-        <v>21.23616163276755</v>
+        <v>144.364134456162</v>
       </c>
       <c r="S3">
-        <v>0.007927946590645458</v>
+        <v>0.007759274457487485</v>
       </c>
       <c r="T3">
-        <v>0.007927946590645458</v>
+        <v>0.007919434717475625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H4">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I4">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J4">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.24574882896792</v>
+        <v>7.024785666666666</v>
       </c>
       <c r="N4">
-        <v>6.24574882896792</v>
+        <v>21.074357</v>
       </c>
       <c r="O4">
-        <v>0.07287298027268324</v>
+        <v>0.07680450044444284</v>
       </c>
       <c r="P4">
-        <v>0.07287298027268324</v>
+        <v>0.09990691330807182</v>
       </c>
       <c r="Q4">
-        <v>41.27958836134782</v>
+        <v>50.28206001836633</v>
       </c>
       <c r="R4">
-        <v>41.27958836134782</v>
+        <v>301.692360110198</v>
       </c>
       <c r="S4">
-        <v>0.01541061786361747</v>
+        <v>0.01621534207676092</v>
       </c>
       <c r="T4">
-        <v>0.01541061786361747</v>
+        <v>0.01655004520100788</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H5">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I5">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J5">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.5371511097301</v>
+        <v>12.79084133333333</v>
       </c>
       <c r="N5">
-        <v>12.5371511097301</v>
+        <v>38.372524</v>
       </c>
       <c r="O5">
-        <v>0.1462786273533163</v>
+        <v>0.1398468544787579</v>
       </c>
       <c r="P5">
-        <v>0.1462786273533163</v>
+        <v>0.1819120948117138</v>
       </c>
       <c r="Q5">
-        <v>82.86091087002497</v>
+        <v>91.55437363162267</v>
       </c>
       <c r="R5">
-        <v>82.86091087002497</v>
+        <v>549.3262417897359</v>
       </c>
       <c r="S5">
-        <v>0.03093388001041413</v>
+        <v>0.0295251524404146</v>
       </c>
       <c r="T5">
-        <v>0.03093388001041413</v>
+        <v>0.03013458520593344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H6">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I6">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J6">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.70953758360124</v>
+        <v>4.836431666666667</v>
       </c>
       <c r="N6">
-        <v>4.70953758360124</v>
+        <v>14.509295</v>
       </c>
       <c r="O6">
-        <v>0.05494906196539211</v>
+        <v>0.05287844152379369</v>
       </c>
       <c r="P6">
-        <v>0.05494906196539211</v>
+        <v>0.06878401451234029</v>
       </c>
       <c r="Q6">
-        <v>31.12641544624536</v>
+        <v>34.61824443868834</v>
       </c>
       <c r="R6">
-        <v>31.12641544624536</v>
+        <v>207.70946663213</v>
       </c>
       <c r="S6">
-        <v>0.01162020535930134</v>
+        <v>0.01116395540407885</v>
       </c>
       <c r="T6">
-        <v>0.01162020535930134</v>
+        <v>0.01139439215558309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.60922965231842</v>
+        <v>7.157807</v>
       </c>
       <c r="H7">
-        <v>6.60922965231842</v>
+        <v>14.315614</v>
       </c>
       <c r="I7">
-        <v>0.2114723153348814</v>
+        <v>0.2111248948034032</v>
       </c>
       <c r="J7">
-        <v>0.2114723153348814</v>
+        <v>0.1656546544479295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.3501297542706</v>
+        <v>57.787556</v>
       </c>
       <c r="N7">
-        <v>53.3501297542706</v>
+        <v>115.575112</v>
       </c>
       <c r="O7">
-        <v>0.6224686678235329</v>
+        <v>0.6318120695903461</v>
       </c>
       <c r="P7">
-        <v>0.6224686678235329</v>
+        <v>0.5479053379970118</v>
       </c>
       <c r="Q7">
-        <v>352.6032595269604</v>
+        <v>413.632172849692</v>
       </c>
       <c r="R7">
-        <v>352.6032595269604</v>
+        <v>1654.528691398768</v>
       </c>
       <c r="S7">
-        <v>0.1316348904080617</v>
+        <v>0.1333912567277823</v>
       </c>
       <c r="T7">
-        <v>0.1316348904080617</v>
+        <v>0.09076306943607099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H8">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I8">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J8">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.6516593649638</v>
+        <v>5.662128</v>
       </c>
       <c r="N8">
-        <v>5.6516593649638</v>
+        <v>11.324256</v>
       </c>
       <c r="O8">
-        <v>0.06594137431539802</v>
+        <v>0.06190607559117826</v>
       </c>
       <c r="P8">
-        <v>0.06594137431539802</v>
+        <v>0.05368474409304218</v>
       </c>
       <c r="Q8">
-        <v>18.22259416806162</v>
+        <v>21.075144407248</v>
       </c>
       <c r="R8">
-        <v>18.22259416806162</v>
+        <v>126.450866443488</v>
       </c>
       <c r="S8">
-        <v>0.006802912682887342</v>
+        <v>0.006796473250217571</v>
       </c>
       <c r="T8">
-        <v>0.006802912682887342</v>
+        <v>0.006936760196983179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H9">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I9">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J9">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.21310693528681</v>
+        <v>3.361461</v>
       </c>
       <c r="N9">
-        <v>3.21310693528681</v>
+        <v>10.084383</v>
       </c>
       <c r="O9">
-        <v>0.03748928826967724</v>
+        <v>0.03675205837148113</v>
       </c>
       <c r="P9">
-        <v>0.03748928826967724</v>
+        <v>0.04780689527782002</v>
       </c>
       <c r="Q9">
-        <v>10.3599916271123</v>
+        <v>12.511775783651</v>
       </c>
       <c r="R9">
-        <v>10.3599916271123</v>
+        <v>112.605982052859</v>
       </c>
       <c r="S9">
-        <v>0.003867622676809349</v>
+        <v>0.004034892847379927</v>
       </c>
       <c r="T9">
-        <v>0.003867622676809349</v>
+        <v>0.00617726644518932</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H10">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I10">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J10">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.24574882896792</v>
+        <v>7.024785666666666</v>
       </c>
       <c r="N10">
-        <v>6.24574882896792</v>
+        <v>21.074357</v>
       </c>
       <c r="O10">
-        <v>0.07287298027268324</v>
+        <v>0.07680450044444284</v>
       </c>
       <c r="P10">
-        <v>0.07287298027268324</v>
+        <v>0.09990691330807182</v>
       </c>
       <c r="Q10">
-        <v>20.13811145298165</v>
+        <v>26.14712566635122</v>
       </c>
       <c r="R10">
-        <v>20.13811145298165</v>
+        <v>235.324130997161</v>
       </c>
       <c r="S10">
-        <v>0.007518019253976532</v>
+        <v>0.008432124436609664</v>
       </c>
       <c r="T10">
-        <v>0.007518019253976532</v>
+        <v>0.01290925962947269</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H11">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I11">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J11">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.5371511097301</v>
+        <v>12.79084133333333</v>
       </c>
       <c r="N11">
-        <v>12.5371511097301</v>
+        <v>38.372524</v>
       </c>
       <c r="O11">
-        <v>0.1462786273533163</v>
+        <v>0.1398468544787579</v>
       </c>
       <c r="P11">
-        <v>0.1462786273533163</v>
+        <v>0.1819120948117138</v>
       </c>
       <c r="Q11">
-        <v>40.42342291762276</v>
+        <v>47.60910177060578</v>
       </c>
       <c r="R11">
-        <v>40.42342291762276</v>
+        <v>428.481915935452</v>
       </c>
       <c r="S11">
-        <v>0.01509099165112268</v>
+        <v>0.01535334612177211</v>
       </c>
       <c r="T11">
-        <v>0.01509099165112268</v>
+        <v>0.02350538500197998</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H12">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I12">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J12">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.70953758360124</v>
+        <v>4.836431666666667</v>
       </c>
       <c r="N12">
-        <v>4.70953758360124</v>
+        <v>14.509295</v>
       </c>
       <c r="O12">
-        <v>0.05494906196539211</v>
+        <v>0.05287844152379369</v>
       </c>
       <c r="P12">
-        <v>0.05494906196539211</v>
+        <v>0.06878401451234029</v>
       </c>
       <c r="Q12">
-        <v>15.18491943042796</v>
+        <v>18.00179999300389</v>
       </c>
       <c r="R12">
-        <v>15.18491943042796</v>
+        <v>162.016199937035</v>
       </c>
       <c r="S12">
-        <v>0.005668878976788916</v>
+        <v>0.005805357711624531</v>
       </c>
       <c r="T12">
-        <v>0.005668878976788916</v>
+        <v>0.008887780357692996</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.22429095444579</v>
+        <v>3.722124333333333</v>
       </c>
       <c r="H13">
-        <v>3.22429095444579</v>
+        <v>11.166373</v>
       </c>
       <c r="I13">
-        <v>0.1031660737058492</v>
+        <v>0.1097868534762375</v>
       </c>
       <c r="J13">
-        <v>0.1031660737058492</v>
+        <v>0.1292128762868075</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.3501297542706</v>
+        <v>57.787556</v>
       </c>
       <c r="N13">
-        <v>53.3501297542706</v>
+        <v>115.575112</v>
       </c>
       <c r="O13">
-        <v>0.6224686678235329</v>
+        <v>0.6318120695903461</v>
       </c>
       <c r="P13">
-        <v>0.6224686678235329</v>
+        <v>0.5479053379970118</v>
       </c>
       <c r="Q13">
-        <v>172.0163407852039</v>
+        <v>215.0924683514627</v>
       </c>
       <c r="R13">
-        <v>172.0163407852039</v>
+        <v>1290.554810108776</v>
       </c>
       <c r="S13">
-        <v>0.06421764846426434</v>
+        <v>0.06936465910863369</v>
       </c>
       <c r="T13">
-        <v>0.06421764846426434</v>
+        <v>0.07079642465548934</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H14">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I14">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J14">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.6516593649638</v>
+        <v>5.662128</v>
       </c>
       <c r="N14">
-        <v>5.6516593649638</v>
+        <v>11.324256</v>
       </c>
       <c r="O14">
-        <v>0.06594137431539802</v>
+        <v>0.06190607559117826</v>
       </c>
       <c r="P14">
-        <v>0.06594137431539802</v>
+        <v>0.05368474409304218</v>
       </c>
       <c r="Q14">
-        <v>7.9876477386351</v>
+        <v>8.892238020304001</v>
       </c>
       <c r="R14">
-        <v>7.9876477386351</v>
+        <v>53.353428121824</v>
       </c>
       <c r="S14">
-        <v>0.002981972248651429</v>
+        <v>0.00286763671326395</v>
       </c>
       <c r="T14">
-        <v>0.002981972248651429</v>
+        <v>0.002926828000292688</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H15">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I15">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J15">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.21310693528681</v>
+        <v>3.361461</v>
       </c>
       <c r="N15">
-        <v>3.21310693528681</v>
+        <v>10.084383</v>
       </c>
       <c r="O15">
-        <v>0.03748928826967724</v>
+        <v>0.03675205837148113</v>
       </c>
       <c r="P15">
-        <v>0.03748928826967724</v>
+        <v>0.04780689527782002</v>
       </c>
       <c r="Q15">
-        <v>4.541173607302293</v>
+        <v>5.279094945923</v>
       </c>
       <c r="R15">
-        <v>4.541173607302293</v>
+        <v>47.511854513307</v>
       </c>
       <c r="S15">
-        <v>0.001695324345336952</v>
+        <v>0.001702442787200316</v>
       </c>
       <c r="T15">
-        <v>0.001695324345336952</v>
+        <v>0.002606374717250791</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H16">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I16">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J16">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.24574882896792</v>
+        <v>7.024785666666666</v>
       </c>
       <c r="N16">
-        <v>6.24574882896792</v>
+        <v>21.074357</v>
       </c>
       <c r="O16">
-        <v>0.07287298027268324</v>
+        <v>0.07680450044444284</v>
       </c>
       <c r="P16">
-        <v>0.07287298027268324</v>
+        <v>0.09990691330807182</v>
       </c>
       <c r="Q16">
-        <v>8.827290940261395</v>
+        <v>11.03225963623922</v>
       </c>
       <c r="R16">
-        <v>8.827290940261395</v>
+        <v>99.29033672615299</v>
       </c>
       <c r="S16">
-        <v>0.003295430328920538</v>
+        <v>0.003557767199989775</v>
       </c>
       <c r="T16">
-        <v>0.003295430328920538</v>
+        <v>0.005446805349134124</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H17">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I17">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J17">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.5371511097301</v>
+        <v>12.79084133333333</v>
       </c>
       <c r="N17">
-        <v>12.5371511097301</v>
+        <v>38.372524</v>
       </c>
       <c r="O17">
-        <v>0.1462786273533163</v>
+        <v>0.1398468544787579</v>
       </c>
       <c r="P17">
-        <v>0.1462786273533163</v>
+        <v>0.1819120948117138</v>
       </c>
       <c r="Q17">
-        <v>17.71910517668002</v>
+        <v>20.08771359742178</v>
       </c>
       <c r="R17">
-        <v>17.71910517668002</v>
+        <v>180.789422376796</v>
       </c>
       <c r="S17">
-        <v>0.006614948685359079</v>
+        <v>0.006478039034264271</v>
       </c>
       <c r="T17">
-        <v>0.006614948685359079</v>
+        <v>0.009917629704335823</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H18">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I18">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J18">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.70953758360124</v>
+        <v>4.836431666666667</v>
       </c>
       <c r="N18">
-        <v>4.70953758360124</v>
+        <v>14.509295</v>
       </c>
       <c r="O18">
-        <v>0.05494906196539211</v>
+        <v>0.05287844152379369</v>
       </c>
       <c r="P18">
-        <v>0.05494906196539211</v>
+        <v>0.06878401451234029</v>
       </c>
       <c r="Q18">
-        <v>6.656120760369005</v>
+        <v>7.59550147028389</v>
       </c>
       <c r="R18">
-        <v>6.656120760369005</v>
+        <v>68.359513232555</v>
       </c>
       <c r="S18">
-        <v>0.002484882663902331</v>
+        <v>0.002449455223994528</v>
       </c>
       <c r="T18">
-        <v>0.002484882663902331</v>
+        <v>0.003750022153376496</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.41332787820737</v>
+        <v>1.570476333333333</v>
       </c>
       <c r="H19">
-        <v>1.41332787820737</v>
+        <v>4.711429</v>
       </c>
       <c r="I19">
-        <v>0.04522156657501004</v>
+        <v>0.04632237927988758</v>
       </c>
       <c r="J19">
-        <v>0.04522156657501004</v>
+        <v>0.05451880324175783</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.3501297542706</v>
+        <v>57.787556</v>
       </c>
       <c r="N19">
-        <v>53.3501297542706</v>
+        <v>115.575112</v>
       </c>
       <c r="O19">
-        <v>0.6224686678235329</v>
+        <v>0.6318120695903461</v>
       </c>
       <c r="P19">
-        <v>0.6224686678235329</v>
+        <v>0.5479053379970118</v>
       </c>
       <c r="Q19">
-        <v>75.40122568769114</v>
+        <v>90.75398905917467</v>
       </c>
       <c r="R19">
-        <v>75.40122568769114</v>
+        <v>544.523934355048</v>
       </c>
       <c r="S19">
-        <v>0.0281490083028397</v>
+        <v>0.02926703832117474</v>
       </c>
       <c r="T19">
-        <v>0.0281490083028397</v>
+        <v>0.02987114331736791</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H20">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I20">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J20">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.6516593649638</v>
+        <v>5.662128</v>
       </c>
       <c r="N20">
-        <v>5.6516593649638</v>
+        <v>11.324256</v>
       </c>
       <c r="O20">
-        <v>0.06594137431539802</v>
+        <v>0.06190607559117826</v>
       </c>
       <c r="P20">
-        <v>0.06594137431539802</v>
+        <v>0.05368474409304218</v>
       </c>
       <c r="Q20">
-        <v>11.43636407964567</v>
+        <v>11.650964560352</v>
       </c>
       <c r="R20">
-        <v>11.43636407964567</v>
+        <v>69.90578736211201</v>
       </c>
       <c r="S20">
-        <v>0.004269457220306114</v>
+        <v>0.003757291881066895</v>
       </c>
       <c r="T20">
-        <v>0.004269457220306114</v>
+        <v>0.003834846663775002</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H21">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I21">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J21">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.21310693528681</v>
+        <v>3.361461</v>
       </c>
       <c r="N21">
-        <v>3.21310693528681</v>
+        <v>10.084383</v>
       </c>
       <c r="O21">
-        <v>0.03748928826967724</v>
+        <v>0.03675205837148113</v>
       </c>
       <c r="P21">
-        <v>0.03748928826967724</v>
+        <v>0.04780689527782002</v>
       </c>
       <c r="Q21">
-        <v>6.501853414339636</v>
+        <v>6.916880540674001</v>
       </c>
       <c r="R21">
-        <v>6.501853414339636</v>
+        <v>62.25192486606601</v>
       </c>
       <c r="S21">
-        <v>0.002427291122589407</v>
+        <v>0.002230608372651238</v>
       </c>
       <c r="T21">
-        <v>0.002427291122589407</v>
+        <v>0.003414976004055308</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H22">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I22">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J22">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.24574882896792</v>
+        <v>7.024785666666666</v>
       </c>
       <c r="N22">
-        <v>6.24574882896792</v>
+        <v>21.074357</v>
       </c>
       <c r="O22">
-        <v>0.07287298027268324</v>
+        <v>0.07680450044444284</v>
       </c>
       <c r="P22">
-        <v>0.07287298027268324</v>
+        <v>0.09990691330807182</v>
       </c>
       <c r="Q22">
-        <v>12.63852842952704</v>
+        <v>14.45490614949044</v>
       </c>
       <c r="R22">
-        <v>12.63852842952704</v>
+        <v>130.094155345414</v>
       </c>
       <c r="S22">
-        <v>0.004718252766499904</v>
+        <v>0.004661528342630503</v>
       </c>
       <c r="T22">
-        <v>0.004718252766499904</v>
+        <v>0.00713662139328653</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H23">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I23">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J23">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.5371511097301</v>
+        <v>12.79084133333333</v>
       </c>
       <c r="N23">
-        <v>12.5371511097301</v>
+        <v>38.372524</v>
       </c>
       <c r="O23">
-        <v>0.1462786273533163</v>
+        <v>0.1398468544787579</v>
       </c>
       <c r="P23">
-        <v>0.1462786273533163</v>
+        <v>0.1819120948117138</v>
       </c>
       <c r="Q23">
-        <v>25.36943848761585</v>
+        <v>26.31972273882756</v>
       </c>
       <c r="R23">
-        <v>25.36943848761585</v>
+        <v>236.877504649448</v>
       </c>
       <c r="S23">
-        <v>0.00947099371546233</v>
+        <v>0.008487784856461775</v>
       </c>
       <c r="T23">
-        <v>0.00947099371546233</v>
+        <v>0.01299447360091702</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H24">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I24">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J24">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.70953758360124</v>
+        <v>4.836431666666667</v>
       </c>
       <c r="N24">
-        <v>4.70953758360124</v>
+        <v>14.509295</v>
       </c>
       <c r="O24">
-        <v>0.05494906196539211</v>
+        <v>0.05287844152379369</v>
       </c>
       <c r="P24">
-        <v>0.05494906196539211</v>
+        <v>0.06878401451234029</v>
       </c>
       <c r="Q24">
-        <v>9.5299420886424</v>
+        <v>9.951928664787779</v>
       </c>
       <c r="R24">
-        <v>9.5299420886424</v>
+        <v>89.56735798309001</v>
       </c>
       <c r="S24">
-        <v>0.00355774613120869</v>
+        <v>0.003209373831623287</v>
       </c>
       <c r="T24">
-        <v>0.00355774613120869</v>
+        <v>0.004913428442846693</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.02354093570162</v>
+        <v>2.057700666666667</v>
       </c>
       <c r="H25">
-        <v>2.02354093570162</v>
+        <v>6.173102</v>
       </c>
       <c r="I25">
-        <v>0.06474625778779301</v>
+        <v>0.06069342702127797</v>
       </c>
       <c r="J25">
-        <v>0.06474625778779301</v>
+        <v>0.07143270827795596</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.3501297542706</v>
+        <v>57.787556</v>
       </c>
       <c r="N25">
-        <v>53.3501297542706</v>
+        <v>115.575112</v>
       </c>
       <c r="O25">
-        <v>0.6224686678235329</v>
+        <v>0.6318120695903461</v>
       </c>
       <c r="P25">
-        <v>0.6224686678235329</v>
+        <v>0.5479053379970118</v>
       </c>
       <c r="Q25">
-        <v>107.9561714827596</v>
+        <v>118.9094925062373</v>
       </c>
       <c r="R25">
-        <v>107.9561714827596</v>
+        <v>713.456955037424</v>
       </c>
       <c r="S25">
-        <v>0.04030251683172656</v>
+        <v>0.03834683973684427</v>
       </c>
       <c r="T25">
-        <v>0.04030251683172656</v>
+        <v>0.0391383621730754</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H26">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I26">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J26">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.6516593649638</v>
+        <v>5.662128</v>
       </c>
       <c r="N26">
-        <v>5.6516593649638</v>
+        <v>11.324256</v>
       </c>
       <c r="O26">
-        <v>0.06594137431539802</v>
+        <v>0.06190607559117826</v>
       </c>
       <c r="P26">
-        <v>0.06594137431539802</v>
+        <v>0.05368474409304218</v>
       </c>
       <c r="Q26">
-        <v>56.91391951308869</v>
+        <v>63.76544546811201</v>
       </c>
       <c r="R26">
-        <v>56.91391951308869</v>
+        <v>382.592672808672</v>
       </c>
       <c r="S26">
-        <v>0.02124727255173272</v>
+        <v>0.02056356701703955</v>
       </c>
       <c r="T26">
-        <v>0.02124727255173272</v>
+        <v>0.02098802245520935</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H27">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I27">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J27">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.21310693528681</v>
+        <v>3.361461</v>
       </c>
       <c r="N27">
-        <v>3.21310693528681</v>
+        <v>10.084383</v>
       </c>
       <c r="O27">
-        <v>0.03748928826967724</v>
+        <v>0.03675205837148113</v>
       </c>
       <c r="P27">
-        <v>0.03748928826967724</v>
+        <v>0.04780689527782002</v>
       </c>
       <c r="Q27">
-        <v>32.3569588492055</v>
+        <v>37.85591885041901</v>
       </c>
       <c r="R27">
-        <v>32.3569588492055</v>
+        <v>340.703269653771</v>
       </c>
       <c r="S27">
-        <v>0.01207959545741992</v>
+        <v>0.01220806533315121</v>
       </c>
       <c r="T27">
-        <v>0.01207959545741992</v>
+        <v>0.01869008055371862</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H28">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I28">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J28">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.24574882896792</v>
+        <v>7.024785666666666</v>
       </c>
       <c r="N28">
-        <v>6.24574882896792</v>
+        <v>21.074357</v>
       </c>
       <c r="O28">
-        <v>0.07287298027268324</v>
+        <v>0.07680450044444284</v>
       </c>
       <c r="P28">
-        <v>0.07287298027268324</v>
+        <v>0.09990691330807182</v>
       </c>
       <c r="Q28">
-        <v>62.89658013618183</v>
+        <v>79.11134954084545</v>
       </c>
       <c r="R28">
-        <v>62.89658013618183</v>
+        <v>712.002145867609</v>
       </c>
       <c r="S28">
-        <v>0.02348073708784055</v>
+        <v>0.0255124311631314</v>
       </c>
       <c r="T28">
-        <v>0.02348073708784055</v>
+        <v>0.03905855518853497</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H29">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I29">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J29">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.5371511097301</v>
+        <v>12.79084133333333</v>
       </c>
       <c r="N29">
-        <v>12.5371511097301</v>
+        <v>38.372524</v>
       </c>
       <c r="O29">
-        <v>0.1462786273533163</v>
+        <v>0.1398468544787579</v>
       </c>
       <c r="P29">
-        <v>0.1462786273533163</v>
+        <v>0.1819120948117138</v>
       </c>
       <c r="Q29">
-        <v>126.2529043427549</v>
+        <v>144.0472019586876</v>
       </c>
       <c r="R29">
-        <v>126.2529043427549</v>
+        <v>1296.424817628188</v>
       </c>
       <c r="S29">
-        <v>0.04713310719008629</v>
+        <v>0.0464534399367728</v>
       </c>
       <c r="T29">
-        <v>0.04713310719008629</v>
+        <v>0.07111843774770366</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H30">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I30">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J30">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.70953758360124</v>
+        <v>4.836431666666667</v>
       </c>
       <c r="N30">
-        <v>4.70953758360124</v>
+        <v>14.509295</v>
       </c>
       <c r="O30">
-        <v>0.05494906196539211</v>
+        <v>0.05287844152379369</v>
       </c>
       <c r="P30">
-        <v>0.05494906196539211</v>
+        <v>0.06878401451234029</v>
       </c>
       <c r="Q30">
-        <v>47.42646816943541</v>
+        <v>54.46666336421278</v>
       </c>
       <c r="R30">
-        <v>47.42646816943541</v>
+        <v>490.199970277915</v>
       </c>
       <c r="S30">
-        <v>0.01770538919095759</v>
+        <v>0.01756482486811183</v>
       </c>
       <c r="T30">
-        <v>0.01770538919095759</v>
+        <v>0.02689107428066416</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.0703025143224</v>
+        <v>11.26174566666667</v>
       </c>
       <c r="H31">
-        <v>10.0703025143224</v>
+        <v>33.785237</v>
       </c>
       <c r="I31">
-        <v>0.322214584884247</v>
+        <v>0.33217364888124</v>
       </c>
       <c r="J31">
-        <v>0.322214584884247</v>
+        <v>0.3909494738176372</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.3501297542706</v>
+        <v>57.787556</v>
       </c>
       <c r="N31">
-        <v>53.3501297542706</v>
+        <v>115.575112</v>
       </c>
       <c r="O31">
-        <v>0.6224686678235329</v>
+        <v>0.6318120695903461</v>
       </c>
       <c r="P31">
-        <v>0.6224686678235329</v>
+        <v>0.5479053379970118</v>
       </c>
       <c r="Q31">
-        <v>537.2519458038574</v>
+        <v>650.7887583702575</v>
       </c>
       <c r="R31">
-        <v>537.2519458038574</v>
+        <v>3904.732550221544</v>
       </c>
       <c r="S31">
-        <v>0.2005684834062099</v>
+        <v>0.2098713205630332</v>
       </c>
       <c r="T31">
-        <v>0.2005684834062099</v>
+        <v>0.2142033035918064</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H32">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I32">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J32">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.6516593649638</v>
+        <v>5.662128</v>
       </c>
       <c r="N32">
-        <v>5.6516593649638</v>
+        <v>11.324256</v>
       </c>
       <c r="O32">
-        <v>0.06594137431539802</v>
+        <v>0.06190607559117826</v>
       </c>
       <c r="P32">
-        <v>0.06594137431539802</v>
+        <v>0.05368474409304218</v>
       </c>
       <c r="Q32">
-        <v>44.71995181041778</v>
+        <v>46.051978174752</v>
       </c>
       <c r="R32">
-        <v>44.71995181041778</v>
+        <v>184.207912699008</v>
       </c>
       <c r="S32">
-        <v>0.01669498450897911</v>
+        <v>0.01485119303271127</v>
       </c>
       <c r="T32">
-        <v>0.01669498450897911</v>
+        <v>0.01010515904492354</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H33">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I33">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J33">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.21310693528681</v>
+        <v>3.361461</v>
       </c>
       <c r="N33">
-        <v>3.21310693528681</v>
+        <v>10.084383</v>
       </c>
       <c r="O33">
-        <v>0.03748928826967724</v>
+        <v>0.03675205837148113</v>
       </c>
       <c r="P33">
-        <v>0.03748928826967724</v>
+        <v>0.04780689527782002</v>
       </c>
       <c r="Q33">
-        <v>25.42438919771409</v>
+        <v>27.339885040974</v>
       </c>
       <c r="R33">
-        <v>25.42438919771409</v>
+        <v>164.039310245844</v>
       </c>
       <c r="S33">
-        <v>0.00949150807687615</v>
+        <v>0.008816774573610955</v>
       </c>
       <c r="T33">
-        <v>0.00949150807687615</v>
+        <v>0.008998762840130349</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H34">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I34">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J34">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.24574882896792</v>
+        <v>7.024785666666666</v>
       </c>
       <c r="N34">
-        <v>6.24574882896792</v>
+        <v>21.074357</v>
       </c>
       <c r="O34">
-        <v>0.07287298027268324</v>
+        <v>0.07680450044444284</v>
       </c>
       <c r="P34">
-        <v>0.07287298027268324</v>
+        <v>0.09990691330807182</v>
       </c>
       <c r="Q34">
-        <v>49.42081052919361</v>
+        <v>57.13492810541266</v>
       </c>
       <c r="R34">
-        <v>49.42081052919361</v>
+        <v>342.809568632476</v>
       </c>
       <c r="S34">
-        <v>0.01844992297182825</v>
+        <v>0.01842530722532058</v>
       </c>
       <c r="T34">
-        <v>0.01844992297182825</v>
+        <v>0.01880562654663561</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H35">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I35">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J35">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>12.5371511097301</v>
+        <v>12.79084133333333</v>
       </c>
       <c r="N35">
-        <v>12.5371511097301</v>
+        <v>38.372524</v>
       </c>
       <c r="O35">
-        <v>0.1462786273533163</v>
+        <v>0.1398468544787579</v>
       </c>
       <c r="P35">
-        <v>0.1462786273533163</v>
+        <v>0.1819120948117138</v>
       </c>
       <c r="Q35">
-        <v>99.20286366562486</v>
+        <v>104.0321847050053</v>
       </c>
       <c r="R35">
-        <v>99.20286366562486</v>
+        <v>624.193108230032</v>
       </c>
       <c r="S35">
-        <v>0.03703470610087184</v>
+        <v>0.0335490920890724</v>
       </c>
       <c r="T35">
-        <v>0.03703470610087184</v>
+        <v>0.03424158355084391</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H36">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I36">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J36">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.70953758360124</v>
+        <v>4.836431666666667</v>
       </c>
       <c r="N36">
-        <v>4.70953758360124</v>
+        <v>14.509295</v>
       </c>
       <c r="O36">
-        <v>0.05494906196539211</v>
+        <v>0.05287844152379369</v>
       </c>
       <c r="P36">
-        <v>0.05494906196539211</v>
+        <v>0.06878401451234029</v>
       </c>
       <c r="Q36">
-        <v>37.26521366337651</v>
+        <v>39.33631411317667</v>
       </c>
       <c r="R36">
-        <v>37.26521366337651</v>
+        <v>236.01788467906</v>
       </c>
       <c r="S36">
-        <v>0.01391195964323325</v>
+        <v>0.01268547448436068</v>
       </c>
       <c r="T36">
-        <v>0.01391195964323325</v>
+        <v>0.01294731712217684</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.91271181126894</v>
+        <v>8.133334</v>
       </c>
       <c r="H37">
-        <v>7.91271181126894</v>
+        <v>16.266668</v>
       </c>
       <c r="I37">
-        <v>0.2531792017122193</v>
+        <v>0.2398987965379539</v>
       </c>
       <c r="J37">
-        <v>0.2531792017122193</v>
+        <v>0.188231483927912</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.3501297542706</v>
+        <v>57.787556</v>
       </c>
       <c r="N37">
-        <v>53.3501297542706</v>
+        <v>115.575112</v>
       </c>
       <c r="O37">
-        <v>0.6224686678235329</v>
+        <v>0.6318120695903461</v>
       </c>
       <c r="P37">
-        <v>0.6224686678235329</v>
+        <v>0.5479053379970118</v>
       </c>
       <c r="Q37">
-        <v>422.1442018393474</v>
+        <v>470.005493991704</v>
       </c>
       <c r="R37">
-        <v>422.1442018393474</v>
+        <v>1880.021975966816</v>
       </c>
       <c r="S37">
-        <v>0.1575961204104307</v>
+        <v>0.151570955132878</v>
       </c>
       <c r="T37">
-        <v>0.1575961204104307</v>
+        <v>0.1031330348232017</v>
       </c>
     </row>
   </sheetData>
